--- a/downloaded_files/EPES302_Lecture-35410.xlsx
+++ b/downloaded_files/EPES302_Lecture-35410.xlsx
@@ -2204,11 +2204,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(13:15)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(13:15)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [18103]18103-30-الجيزة الرئيسي Time : Tuesday(13:15)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES302_Lecture-35410.xlsx
+++ b/downloaded_files/EPES302_Lecture-35410.xlsx
@@ -216,7 +216,7 @@
     <x:t>4230152</x:t>
   </x:si>
   <x:si>
-    <x:t>عبدالرحمن محمد عبدالرؤف عبدالرؤف اسماعيل</x:t>
+    <x:t>عبدالرحمن محمد عبدالرؤوف عبدالرؤوف اسماعيل</x:t>
   </x:si>
   <x:si>
     <x:t>ABDELRAHMAN MOHAMED ABDELRAOUF ABDELRAOUF ISMAIL</x:t>
@@ -820,7 +820,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.130625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="36.710625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="56.170625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>

--- a/downloaded_files/EPES302_Lecture-35410.xlsx
+++ b/downloaded_files/EPES302_Lecture-35410.xlsx
@@ -2204,11 +2204,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(13:15)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(13:15)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(13:15)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(13:15)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [9301] ELC. Bulding               -45-الجيزة الرئيسي Time : Tuesday(13:15)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Elements of Power Systems (EPES302) Location : [18202]18202-60-الجيزة الرئيسي Time : Tuesday(13:15)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:rowBreaks count="1" manualBreakCount="1">

--- a/downloaded_files/EPES302_Lecture-35410.xlsx
+++ b/downloaded_files/EPES302_Lecture-35410.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -397,6 +397,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef Amr Sayed Kamal Mahmoud Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230291</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد وليد احمد محمد مبروك</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Walid Ahmed Mohamed Mabruk</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -512,7 +521,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E43" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +821,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T43"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2198,6 +2207,38 @@
       <x:c r="R42" s="2" t="s"/>
       <x:c r="S42" s="2" t="s"/>
       <x:c r="T42" s="2" t="s"/>
+    </x:row>
+    <x:row r="43" spans="1:20">
+      <x:c r="A43" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="D43" s="2" t="s">
+        <x:v>129</x:v>
+      </x:c>
+      <x:c r="E43" s="3">
+        <x:v>45927.586636956</x:v>
+      </x:c>
+      <x:c r="F43" s="2" t="s"/>
+      <x:c r="G43" s="2" t="s"/>
+      <x:c r="H43" s="2" t="s"/>
+      <x:c r="I43" s="2" t="s"/>
+      <x:c r="J43" s="2" t="s"/>
+      <x:c r="K43" s="2" t="s"/>
+      <x:c r="L43" s="2" t="s"/>
+      <x:c r="M43" s="2" t="s"/>
+      <x:c r="N43" s="2" t="s"/>
+      <x:c r="O43" s="2" t="s"/>
+      <x:c r="P43" s="2" t="s"/>
+      <x:c r="Q43" s="2" t="s"/>
+      <x:c r="R43" s="2" t="s"/>
+      <x:c r="S43" s="2" t="s"/>
+      <x:c r="T43" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES302_Lecture-35410.xlsx
+++ b/downloaded_files/EPES302_Lecture-35410.xlsx
@@ -66,7 +66,7 @@
     <x:t>احمد محمد فؤاد محمد صالح</x:t>
   </x:si>
   <x:si>
-    <x:t>ahmed mohamed fouad saleh</x:t>
+    <x:t>Ahmed Mohamed Fouad Mohamed Saleh</x:t>
   </x:si>
   <x:si>
     <x:t>1230165</x:t>
